--- a/DMS/Templates/Report_Store_General.xlsx
+++ b/DMS/Templates/Report_Store_General.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\OneDrive\My com\Rang Dong _Product\bc\Template xuất excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615F9E5-E45C-47BD-9A0F-CFADCF99D506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -35,9 +36,6 @@
     <t>Tên cửa hàng</t>
   </si>
   <si>
-    <t>{Đơn vị quản lý}</t>
-  </si>
-  <si>
     <t>Số điện thoại</t>
   </si>
   <si>
@@ -80,26 +78,65 @@
     <t>Từ ngày</t>
   </si>
   <si>
-    <t>{ngày bắt đầu}</t>
-  </si>
-  <si>
     <t>Đến ngày</t>
   </si>
   <si>
-    <t>{ngày kết thúc}</t>
-  </si>
-  <si>
-    <t>Đơn vị quản lý 1</t>
-  </si>
-  <si>
-    <t>Đơn vị quản lý 2</t>
+    <t>{{Start}}</t>
+  </si>
+  <si>
+    <t>{{End}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.OrganizationName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.STT}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.Code}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.Name}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.Address}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.Phone}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.CheckingPlannedCounter}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.CheckingUnPlannedCounter}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.TotalCheckingTime}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.FirstChecking}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.LastChecking}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.IndirectSalesOrderCounter}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.SKUCounter}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.TotalRevenue}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.LastOrderDisplay}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +172,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -214,24 +258,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -520,304 +567,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A14:N14"/>
+  <mergeCells count="4">
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_General.xlsx
+++ b/DMS/Templates/Report_Store_General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615F9E5-E45C-47BD-9A0F-CFADCF99D506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF347392-2C20-4971-9C82-C217454BD228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,24 +30,12 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Mã cửa hàng</t>
-  </si>
-  <si>
-    <t>Tên cửa hàng</t>
-  </si>
-  <si>
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>Địa chỉ cửa hàng</t>
-  </si>
-  <si>
     <t>Số đơn hàng</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP CỬA HÀNG</t>
-  </si>
-  <si>
     <t>Số lần VT đúng tuyến</t>
   </si>
   <si>
@@ -130,6 +118,18 @@
   </si>
   <si>
     <t>{{ReportStoreGenerals.Stores.LastOrderDisplay}}</t>
+  </si>
+  <si>
+    <t>Mã đại lý</t>
+  </si>
+  <si>
+    <t>Tên đại lý</t>
+  </si>
+  <si>
+    <t>Địa chỉ đại lý</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TỔNG HỢP ĐẠI LÝ</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -631,16 +631,16 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -653,48 +653,48 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -714,46 +714,46 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Report_Store_General.xlsx
+++ b/DMS/Templates/Report_Store_General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF347392-2C20-4971-9C82-C217454BD228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F593368-9662-4E6A-8995-B8A0CA546D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>BÁO CÁO TỔNG HỢP ĐẠI LÝ</t>
+  </si>
+  <si>
+    <t>Nhân viên VT gần nhất</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.EmployeeLastChecking}}</t>
   </si>
 </sst>
 </file>
@@ -568,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -585,15 +591,15 @@
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="11" width="11.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -602,12 +608,12 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -624,8 +630,9 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -647,8 +654,9 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,19 +688,22 @@
         <v>7</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -710,9 +721,10 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -744,24 +756,27 @@
         <v>26</v>
       </c>
       <c r="K9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A4:O4"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="A8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_General.xlsx
+++ b/DMS/Templates/Report_Store_General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F593368-9662-4E6A-8995-B8A0CA546D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A11F3D-3C74-46C5-B9B6-F2BAC4ECC317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,12 +102,6 @@
     <t>{{ReportStoreGenerals.Stores.TotalCheckingTime}}</t>
   </si>
   <si>
-    <t>{{ReportStoreGenerals.Stores.FirstChecking}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreGenerals.Stores.LastChecking}}</t>
-  </si>
-  <si>
     <t>{{ReportStoreGenerals.Stores.IndirectSalesOrderCounter}}</t>
   </si>
   <si>
@@ -136,6 +130,12 @@
   </si>
   <si>
     <t>{{ReportStoreGenerals.Stores.EmployeeLastChecking}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.eFirstChecking}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.eLastChecking}}</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>2</v>
@@ -750,25 +750,25 @@
         <v>24</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Report_Store_General.xlsx
+++ b/DMS/Templates/Report_Store_General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A11F3D-3C74-46C5-B9B6-F2BAC4ECC317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262A604-BC9A-4D73-BEDA-4FAA7784A70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,76 +223,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,60 +554,61 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -656,127 +634,135 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_General.xlsx
+++ b/DMS/Templates/Report_Store_General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262A604-BC9A-4D73-BEDA-4FAA7784A70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD89CD-D301-492C-9DCE-ABB0B75687E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -244,6 +244,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -253,23 +268,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,63 +557,62 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="31" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="15" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -635,10 +637,10 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,78 +686,78 @@
       <c r="O7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DMS/Templates/Report_Store_General.xlsx
+++ b/DMS/Templates/Report_Store_General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD89CD-D301-492C-9DCE-ABB0B75687E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39060FD2-E820-4297-94C1-F4AFDB151D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>{{ReportStoreGenerals.Stores.eLastChecking}}</t>
+  </si>
+  <si>
+    <t>Trạng thái đại lý</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.StoreStatusName}}</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,6 +265,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -270,9 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,69 +563,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="16.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="4" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
@@ -629,18 +642,18 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P6" s="6"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,66 +664,70 @@
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="8"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
       <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -721,50 +738,53 @@
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="N9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="O9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:P4"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_General.xlsx
+++ b/DMS/Templates/Report_Store_General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39060FD2-E820-4297-94C1-F4AFDB151D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39EC6B-B518-4D87-A48D-B8C93764F614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -114,9 +114,6 @@
     <t>{{ReportStoreGenerals.Stores.LastOrderDisplay}}</t>
   </si>
   <si>
-    <t>Mã đại lý</t>
-  </si>
-  <si>
     <t>Tên đại lý</t>
   </si>
   <si>
@@ -142,6 +139,15 @@
   </si>
   <si>
     <t>{{ReportStoreGenerals.Stores.StoreStatusName}}</t>
+  </si>
+  <si>
+    <t>Mã đại lý (tự sinh)</t>
+  </si>
+  <si>
+    <t>Mã đại lý (tự nhập)</t>
+  </si>
+  <si>
+    <t>{{ReportStoreGenerals.Stores.CodeDraft}}</t>
   </si>
 </sst>
 </file>
@@ -563,32 +569,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="16.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="3" width="13.28515625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="22.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="3" customWidth="1"/>
+    <col min="11" max="12" width="16.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -597,16 +603,18 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
     </row>
-    <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -623,89 +631,94 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q6" s="6"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="M7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
@@ -724,10 +737,11 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -735,56 +749,59 @@
         <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
